--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -546,10 +546,10 @@
         <v>0.614215</v>
       </c>
       <c r="I2">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J2">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N2">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q2">
-        <v>7.736532504567222</v>
+        <v>7.021256479358333</v>
       </c>
       <c r="R2">
-        <v>69.628792541105</v>
+        <v>63.19130831422499</v>
       </c>
       <c r="S2">
-        <v>0.00128538112938039</v>
+        <v>0.001095184480983271</v>
       </c>
       <c r="T2">
-        <v>0.00128538112938039</v>
+        <v>0.001095184480983271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -608,10 +608,10 @@
         <v>0.614215</v>
       </c>
       <c r="I3">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J3">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P3">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q3">
         <v>5.655391710095556</v>
@@ -638,10 +638,10 @@
         <v>50.89852539085999</v>
       </c>
       <c r="S3">
-        <v>0.0009396113541977245</v>
+        <v>0.0008821351638395256</v>
       </c>
       <c r="T3">
-        <v>0.0009396113541977245</v>
+        <v>0.0008821351638395256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -670,10 +670,10 @@
         <v>0.614215</v>
       </c>
       <c r="I4">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J4">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N4">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O4">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P4">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q4">
-        <v>1.884686447089445</v>
+        <v>6.717809427773889</v>
       </c>
       <c r="R4">
-        <v>16.962178023805</v>
+        <v>60.460284849965</v>
       </c>
       <c r="S4">
-        <v>0.0003131299962169888</v>
+        <v>0.001047852425435603</v>
       </c>
       <c r="T4">
-        <v>0.0003131299962169888</v>
+        <v>0.001047852425435603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.614215</v>
       </c>
       <c r="I5">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J5">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N5">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O5">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P5">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q5">
-        <v>0.9971869244944443</v>
+        <v>1.335034179091667</v>
       </c>
       <c r="R5">
-        <v>8.974682320449999</v>
+        <v>12.015307611825</v>
       </c>
       <c r="S5">
-        <v>0.0001656769689073681</v>
+        <v>0.0002082403226291279</v>
       </c>
       <c r="T5">
-        <v>0.0001656769689073681</v>
+        <v>0.0002082403226291279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.614215</v>
       </c>
       <c r="I6">
-        <v>0.003296321020982326</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="J6">
-        <v>0.003296321020982325</v>
+        <v>0.003650161018267599</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N6">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O6">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P6">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q6">
-        <v>3.566305976352778</v>
+        <v>2.671786385784444</v>
       </c>
       <c r="R6">
-        <v>32.096753787175</v>
+        <v>24.04607747206</v>
       </c>
       <c r="S6">
-        <v>0.0005925215722798541</v>
+        <v>0.0004167486253800714</v>
       </c>
       <c r="T6">
-        <v>0.0005925215722798541</v>
+        <v>0.0004167486253800715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.496115</v>
       </c>
       <c r="I7">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J7">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N7">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q7">
-        <v>31.44057835226722</v>
+        <v>28.53376035585833</v>
       </c>
       <c r="R7">
-        <v>282.9652051704051</v>
+        <v>256.803843202725</v>
       </c>
       <c r="S7">
-        <v>0.005223674312355335</v>
+        <v>0.004450732090146866</v>
       </c>
       <c r="T7">
-        <v>0.005223674312355336</v>
+        <v>0.004450732090146866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.496115</v>
       </c>
       <c r="I8">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J8">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P8">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q8">
         <v>22.98300770649556</v>
@@ -948,10 +948,10 @@
         <v>206.84706935846</v>
       </c>
       <c r="S8">
-        <v>0.00381849677292683</v>
+        <v>0.003584918659569202</v>
       </c>
       <c r="T8">
-        <v>0.003818496772926831</v>
+        <v>0.003584918659569203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.496115</v>
       </c>
       <c r="I9">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J9">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N9">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O9">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P9">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q9">
-        <v>7.659197692789445</v>
+        <v>27.30057859187389</v>
       </c>
       <c r="R9">
-        <v>68.932779235105</v>
+        <v>245.705207326865</v>
       </c>
       <c r="S9">
-        <v>0.00127253238769351</v>
+        <v>0.004258378836264484</v>
       </c>
       <c r="T9">
-        <v>0.00127253238769351</v>
+        <v>0.004258378836264485</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>2.496115</v>
       </c>
       <c r="I10">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J10">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N10">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O10">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P10">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q10">
-        <v>4.052478757494444</v>
+        <v>5.425459879591667</v>
       </c>
       <c r="R10">
-        <v>36.47230881745</v>
+        <v>48.829138916325</v>
       </c>
       <c r="S10">
-        <v>0.0006732964308006403</v>
+        <v>0.0008462701056135159</v>
       </c>
       <c r="T10">
-        <v>0.0006732964308006404</v>
+        <v>0.000846270105613516</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>2.496115</v>
       </c>
       <c r="I11">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="J11">
-        <v>0.01339595474758724</v>
+        <v>0.01483392895014454</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N11">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O11">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P11">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q11">
-        <v>14.49314953585278</v>
+        <v>10.85790167018444</v>
       </c>
       <c r="R11">
-        <v>130.438345822675</v>
+        <v>97.72111503165999</v>
       </c>
       <c r="S11">
-        <v>0.002407954843810926</v>
+        <v>0.00169362925855047</v>
       </c>
       <c r="T11">
-        <v>0.002407954843810926</v>
+        <v>0.001693629258550471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H12">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I12">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J12">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N12">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q12">
-        <v>855.9263672617654</v>
+        <v>1240.588878348062</v>
       </c>
       <c r="R12">
-        <v>7703.33730535589</v>
+        <v>11165.29990513256</v>
       </c>
       <c r="S12">
-        <v>0.1422073260815346</v>
+        <v>0.1935086249650017</v>
       </c>
       <c r="T12">
-        <v>0.1422073260815346</v>
+        <v>0.1935086249650017</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H13">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I13">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J13">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P13">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q13">
-        <v>625.6806752904831</v>
+        <v>999.2536348547632</v>
       </c>
       <c r="R13">
-        <v>5631.126077614348</v>
+        <v>8993.282713692868</v>
       </c>
       <c r="S13">
-        <v>0.1039533062856762</v>
+        <v>0.1558648479337525</v>
       </c>
       <c r="T13">
-        <v>0.1039533062856762</v>
+        <v>0.1558648479337525</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H14">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I14">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J14">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N14">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O14">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P14">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q14">
-        <v>208.5110898367499</v>
+        <v>1186.972686079641</v>
       </c>
       <c r="R14">
-        <v>1876.599808530749</v>
+        <v>10682.75417471677</v>
       </c>
       <c r="S14">
-        <v>0.034642938549599</v>
+        <v>0.185145503367832</v>
       </c>
       <c r="T14">
-        <v>0.03464293854959901</v>
+        <v>0.185145503367832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H15">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I15">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J15">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N15">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O15">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P15">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q15">
-        <v>110.3231429919789</v>
+        <v>235.8877730310483</v>
       </c>
       <c r="R15">
-        <v>992.9082869278101</v>
+        <v>2122.989957279435</v>
       </c>
       <c r="S15">
-        <v>0.01832956638547164</v>
+        <v>0.03679407368706717</v>
       </c>
       <c r="T15">
-        <v>0.01832956638547164</v>
+        <v>0.03679407368706717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.65109566666667</v>
+        <v>36.17530566666667</v>
       </c>
       <c r="H16">
-        <v>67.953287</v>
+        <v>108.525917</v>
       </c>
       <c r="I16">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="J16">
-        <v>0.3646863856840764</v>
+        <v>0.6449485468527225</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N16">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O16">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P16">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q16">
-        <v>394.5560000014905</v>
+        <v>472.0791051103808</v>
       </c>
       <c r="R16">
-        <v>3551.004000013415</v>
+        <v>4248.711945993427</v>
       </c>
       <c r="S16">
-        <v>0.06555324838179492</v>
+        <v>0.07363549689906911</v>
       </c>
       <c r="T16">
-        <v>0.06555324838179494</v>
+        <v>0.07363549689906912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H17">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I17">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J17">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N17">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q17">
-        <v>1451.916868298292</v>
+        <v>0.6664086500283333</v>
       </c>
       <c r="R17">
-        <v>13067.25181468463</v>
+        <v>5.997677850254999</v>
       </c>
       <c r="S17">
-        <v>0.241227777798123</v>
+        <v>0.000103947265514326</v>
       </c>
       <c r="T17">
-        <v>0.2412277777981231</v>
+        <v>0.000103947265514326</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H18">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I18">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J18">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>82.867604</v>
       </c>
       <c r="O18">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P18">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q18">
-        <v>1061.348687654921</v>
+        <v>0.5367703011542222</v>
       </c>
       <c r="R18">
-        <v>9552.138188894292</v>
+        <v>4.830932710388</v>
       </c>
       <c r="S18">
-        <v>0.1763370830535394</v>
+        <v>8.37261116162139E-05</v>
       </c>
       <c r="T18">
-        <v>0.1763370830535395</v>
+        <v>8.372611161621392E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H19">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I19">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J19">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N19">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O19">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P19">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q19">
-        <v>353.6995472282857</v>
+        <v>0.6376075742385555</v>
       </c>
       <c r="R19">
-        <v>3183.295925054571</v>
+        <v>5.738468168147</v>
       </c>
       <c r="S19">
-        <v>0.05876517977649972</v>
+        <v>9.945483722413055E-05</v>
       </c>
       <c r="T19">
-        <v>0.05876517977649974</v>
+        <v>9.945483722413056E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>38.423291</v>
+        <v>0.01943233333333333</v>
       </c>
       <c r="H20">
-        <v>115.269873</v>
+        <v>0.058297</v>
       </c>
       <c r="I20">
-        <v>0.6186213385473539</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="J20">
-        <v>0.618621338547354</v>
+        <v>0.0003464478022873851</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N20">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O20">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P20">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q20">
-        <v>187.1423038247767</v>
+        <v>0.1267121244816667</v>
       </c>
       <c r="R20">
-        <v>1684.28073442299</v>
+        <v>1.140409120335</v>
       </c>
       <c r="S20">
-        <v>0.03109263558359414</v>
+        <v>1.976471771010195E-05</v>
       </c>
       <c r="T20">
-        <v>0.03109263558359415</v>
+        <v>1.976471771010195E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01943233333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.058297</v>
+      </c>
+      <c r="I21">
+        <v>0.0003464478022873851</v>
+      </c>
+      <c r="J21">
+        <v>0.0003464478022873851</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.04976133333333</v>
+      </c>
+      <c r="N21">
+        <v>39.14928399999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1141726689026624</v>
+      </c>
+      <c r="P21">
+        <v>0.1141726689026624</v>
+      </c>
+      <c r="Q21">
+        <v>0.2535873121497777</v>
+      </c>
+      <c r="R21">
+        <v>2.282285809348</v>
+      </c>
+      <c r="S21">
+        <v>3.955487022261265E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.955487022261265E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.858705</v>
+      </c>
+      <c r="H22">
+        <v>56.576115</v>
+      </c>
+      <c r="I22">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J22">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>34.293805</v>
+      </c>
+      <c r="N22">
+        <v>102.881415</v>
+      </c>
+      <c r="O22">
+        <v>0.3000373067112135</v>
+      </c>
+      <c r="P22">
+        <v>0.3000373067112135</v>
+      </c>
+      <c r="Q22">
+        <v>646.736751822525</v>
+      </c>
+      <c r="R22">
+        <v>5820.630766402724</v>
+      </c>
+      <c r="S22">
+        <v>0.1008788179095673</v>
+      </c>
+      <c r="T22">
+        <v>0.1008788179095673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.858705</v>
+      </c>
+      <c r="H23">
+        <v>56.576115</v>
+      </c>
+      <c r="I23">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J23">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>27.62253466666667</v>
+      </c>
+      <c r="N23">
+        <v>82.867604</v>
+      </c>
+      <c r="O23">
+        <v>0.2416702056223797</v>
+      </c>
+      <c r="P23">
+        <v>0.2416702056223798</v>
+      </c>
+      <c r="Q23">
+        <v>520.9252326309401</v>
+      </c>
+      <c r="R23">
+        <v>4688.32709367846</v>
+      </c>
+      <c r="S23">
+        <v>0.08125457775360231</v>
+      </c>
+      <c r="T23">
+        <v>0.08125457775360233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.858705</v>
+      </c>
+      <c r="H24">
+        <v>56.576115</v>
+      </c>
+      <c r="I24">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J24">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>32.81168366666667</v>
+      </c>
+      <c r="N24">
+        <v>98.435051</v>
+      </c>
+      <c r="O24">
+        <v>0.2870701922987834</v>
+      </c>
+      <c r="P24">
+        <v>0.2870701922987835</v>
+      </c>
+      <c r="Q24">
+        <v>618.785862822985</v>
+      </c>
+      <c r="R24">
+        <v>5569.072765406865</v>
+      </c>
+      <c r="S24">
+        <v>0.0965190028320272</v>
+      </c>
+      <c r="T24">
+        <v>0.09651900283202723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>38.423291</v>
-      </c>
-      <c r="H21">
-        <v>115.269873</v>
-      </c>
-      <c r="I21">
-        <v>0.6186213385473539</v>
-      </c>
-      <c r="J21">
-        <v>0.618621338547354</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>17.41884833333333</v>
-      </c>
-      <c r="N21">
-        <v>52.256545</v>
-      </c>
-      <c r="O21">
-        <v>0.1797523871334833</v>
-      </c>
-      <c r="P21">
-        <v>0.1797523871334834</v>
-      </c>
-      <c r="Q21">
-        <v>669.2894783965316</v>
-      </c>
-      <c r="R21">
-        <v>6023.605305568785</v>
-      </c>
-      <c r="S21">
-        <v>0.1111986623355976</v>
-      </c>
-      <c r="T21">
-        <v>0.1111986623355977</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.858705</v>
+      </c>
+      <c r="H25">
+        <v>56.576115</v>
+      </c>
+      <c r="I25">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J25">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.520685</v>
+      </c>
+      <c r="N25">
+        <v>19.562055</v>
+      </c>
+      <c r="O25">
+        <v>0.05704962646496092</v>
+      </c>
+      <c r="P25">
+        <v>0.05704962646496093</v>
+      </c>
+      <c r="Q25">
+        <v>122.971674812925</v>
+      </c>
+      <c r="R25">
+        <v>1106.745073316325</v>
+      </c>
+      <c r="S25">
+        <v>0.01918127763194101</v>
+      </c>
+      <c r="T25">
+        <v>0.01918127763194101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.858705</v>
+      </c>
+      <c r="H26">
+        <v>56.576115</v>
+      </c>
+      <c r="I26">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="J26">
+        <v>0.3362209153765779</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.04976133333333</v>
+      </c>
+      <c r="N26">
+        <v>39.14928399999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1141726689026624</v>
+      </c>
+      <c r="P26">
+        <v>0.1141726689026624</v>
+      </c>
+      <c r="Q26">
+        <v>246.10159930574</v>
+      </c>
+      <c r="R26">
+        <v>2214.91439375166</v>
+      </c>
+      <c r="S26">
+        <v>0.03838723924944008</v>
+      </c>
+      <c r="T26">
+        <v>0.0383872392494401</v>
       </c>
     </row>
   </sheetData>
